--- a/monster-golf-docs/monster2015/MonsterAll2015.xlsx
+++ b/monster-golf-docs/monster2015/MonsterAll2015.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dsw002002\awald_source\monster-golf\monster-golf-docs\monster2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\awald\monster-golf\monster-golf-docs\monster2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Teams" sheetId="1" r:id="rId1"/>
+    <sheet name="Side" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Aaron Wald - Personal View" guid="{0207575D-3FDA-441D-8E09-487CC75706CC}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="886" activeSheetId="2"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="163">
   <si>
     <t>Jake</t>
   </si>
@@ -489,6 +493,30 @@
   </si>
   <si>
     <t>LastScored</t>
+  </si>
+  <si>
+    <t>pay spots</t>
+  </si>
+  <si>
+    <t>total purse</t>
+  </si>
+  <si>
+    <t>per team</t>
+  </si>
+  <si>
+    <t>pay per team</t>
+  </si>
+  <si>
+    <t>pay per tier</t>
+  </si>
+  <si>
+    <t>pay % per tier</t>
+  </si>
+  <si>
+    <t>tiered side bet</t>
+  </si>
+  <si>
+    <t># teams</t>
   </si>
 </sst>
 </file>
@@ -496,7 +524,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -539,12 +567,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,6 +597,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2C1E74DA-FFD1-41B0-B779-B9130FF11707}" diskRevisions="1" revisionId="3" version="4" preserveHistory="45">
+  <header guid="{8348E4B2-1FB9-4AE6-8955-B629DA260A7E}" dateTime="2015-04-28T11:25:30" maxSheetId="3" userName="Aaron Wald" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AB9A472A-6BC6-4B9D-8F6D-6B41995992FF}" dateTime="2015-04-28T11:27:29" maxSheetId="3" userName="Aaron Wald" r:id="rId2" minRId="1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C2BE5435-E020-4A2E-8535-C069AA757C77}" dateTime="2015-04-28T11:27:51" maxSheetId="3" userName="Aaron Wald" r:id="rId3" minRId="2" maxRId="3">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2C1E74DA-FFD1-41B0-B779-B9130FF11707}" dateTime="2015-04-28T11:30:06" maxSheetId="3" userName="Aaron Wald" r:id="rId4">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="2">
+    <oc r="B2">
+      <v>275</v>
+    </oc>
+    <nc r="B2">
+      <v>100</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rsnm rId="2" sheetId="1" oldName="[MonsterAll2015.xlsx]Sheet1" newName="[MonsterAll2015.xlsx]Teams"/>
+  <rsnm rId="3" sheetId="2" oldName="[MonsterAll2015.xlsx]Sheet2" newName="[MonsterAll2015.xlsx]Side"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{0207575D-3FDA-441D-8E09-487CC75706CC}" action="delete"/>
+  <rcv guid="{0207575D-3FDA-441D-8E09-487CC75706CC}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3458,7 +3559,141 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{0207575D-3FDA-441D-8E09-487CC75706CC}">
+      <selection activeCell="G10" sqref="G10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="6" t="str">
+        <f>(CONCATENATE("pay spots ",$D$2/3))</f>
+        <v>pay spots 4</v>
+      </c>
+      <c r="F1" s="6" t="str">
+        <f t="shared" ref="F1:G1" si="0">(CONCATENATE("pay spots ",$D$2/3))</f>
+        <v>pay spots 4</v>
+      </c>
+      <c r="G1" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>pay spots 4</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="8">
+        <v>100</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="6">
+        <f>(3*(_xlfn.FLOOR.MATH(B2/50)-1))+9</f>
+        <v>12</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="9">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7">
+        <f>B3*B2</f>
+        <v>4000</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <f>C3*E2</f>
+        <v>2400</v>
+      </c>
+      <c r="F3" s="7">
+        <f>C3*F2</f>
+        <v>1200</v>
+      </c>
+      <c r="G3" s="7">
+        <f>C3*G2</f>
+        <v>400</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <f>E3/($D$2/3)</f>
+        <v>600</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:G4" si="1">F3/($D$2/3)</f>
+        <v>300</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{0207575D-3FDA-441D-8E09-487CC75706CC}">
+      <selection activeCell="E4" sqref="E4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/monster-golf-docs/monster2015/MonsterAll2015.xlsx
+++ b/monster-golf-docs/monster2015/MonsterAll2015.xlsx
@@ -9,30 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="8985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="8985" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Individuals" sheetId="8" r:id="rId3"/>
-    <sheet name="Individual-Print" sheetId="12" r:id="rId4"/>
-    <sheet name="TeamList" sheetId="7" r:id="rId5"/>
-    <sheet name="Groups Practice" sheetId="9" r:id="rId6"/>
-    <sheet name="Groups" sheetId="10" r:id="rId7"/>
-    <sheet name="Groups2" sheetId="11" r:id="rId8"/>
-    <sheet name="Practice Game" sheetId="5" r:id="rId9"/>
-    <sheet name="Groups Round 1" sheetId="4" r:id="rId10"/>
-    <sheet name="Groups Round 2" sheetId="6" r:id="rId11"/>
-    <sheet name="Side" sheetId="2" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId5"/>
+    <sheet name="Individual-Print" sheetId="12" r:id="rId6"/>
+    <sheet name="TeamList" sheetId="7" r:id="rId7"/>
+    <sheet name="Groups Practice" sheetId="9" r:id="rId8"/>
+    <sheet name="Groups" sheetId="10" r:id="rId9"/>
+    <sheet name="Groups2" sheetId="11" r:id="rId10"/>
+    <sheet name="Practice Game" sheetId="5" r:id="rId11"/>
+    <sheet name="Groups Round 1" sheetId="4" r:id="rId12"/>
+    <sheet name="Groups Round 2" sheetId="6" r:id="rId13"/>
+    <sheet name="Side" sheetId="2" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Groups2!$A$1:$D$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Groups Practice'!$A$1:$F$75</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Groups2!$A$1:$D$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TeamList!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Groups2!$A$1:$D$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Groups Practice'!$A$1:$F$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Groups2!$A$1:$D$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">TeamList!$A$1:$K$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Teams!$A$1:$AE$43</definedName>
-    <definedName name="Z_0207575D_3FDA_441D_8E09_487CC75706CC_.wvu.FilterData" localSheetId="5" hidden="1">'Groups Practice'!$A$1:$F$75</definedName>
-    <definedName name="Z_0207575D_3FDA_441D_8E09_487CC75706CC_.wvu.FilterData" localSheetId="4" hidden="1">TeamList!$A$1:$K$43</definedName>
+    <definedName name="Z_0207575D_3FDA_441D_8E09_487CC75706CC_.wvu.FilterData" localSheetId="7" hidden="1">'Groups Practice'!$A$1:$F$75</definedName>
+    <definedName name="Z_0207575D_3FDA_441D_8E09_487CC75706CC_.wvu.FilterData" localSheetId="6" hidden="1">TeamList!$A$1:$K$43</definedName>
     <definedName name="Z_0207575D_3FDA_441D_8E09_487CC75706CC_.wvu.FilterData" localSheetId="0" hidden="1">Teams!$A$1:$AE$43</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="617">
   <si>
     <t>Jake</t>
   </si>
@@ -1770,6 +1772,135 @@
   </si>
   <si>
     <t>Flt</t>
+  </si>
+  <si>
+    <t>Flight Name Round 1 Round 2 Overall Player R1 Hcp Net SC R2 Hcp Net SC Player R1 Hcp Net SC R2 Hcp Net SC</t>
+  </si>
+  <si>
+    <t>1 Bodine, Chad - Gomez, Marco 63 58 121 Chad Bodine 75 8 67 75 72 8 64 72 Marco Gomez 67 0 67 67 68 0 68 68</t>
+  </si>
+  <si>
+    <t>1 Francis, Steve - Soderholm, Tim 63 62 125 Steve Francis 88 12 76 87 85 12 73 85 Tim Soderholm 77 6 71 77 72 6 66 72</t>
+  </si>
+  <si>
+    <t>1 Callahan, Chris - McDowell, Craig 63 63 126 Chris Callahan 74 4 70 74 73 4 69 73 Craig McDowell 75 9 66 75 77 9 68 77</t>
+  </si>
+  <si>
+    <t>1 Hanson, Jon - Wald, Aaron 64 66 130 Jon Hanson 75 0 75 75 72 0 72 72 Aaron Wald 76 9 67 76 81 9 72 81</t>
+  </si>
+  <si>
+    <t>1 Plemel, Paul - Wald, Steve 65 65 130 Paul Plemel 81 10 71 81 79 10 69 79 Steve Wald 79 7 72 79 81 7 74 80</t>
+  </si>
+  <si>
+    <t>1 Bodine, Todd - Moore, Patrick 68 64 132 Todd Bodine 90 12 78 90 82 12 70 82 Patrick Moore 77 -2 79 75 75 -2 77 75</t>
+  </si>
+  <si>
+    <t>1 Giesinger, Brian - Wald, Doug 71 65 136 Brian Giesinger 92 12 80 92 84 12 72 84 Doug Wald 81 4 77 81 74 4 70 74</t>
+  </si>
+  <si>
+    <t>1 Morey, Mike - Radke, Shannon 71 66 137 Mike Morey 87 9 78 87 84 9 75 84 Shannon Radke 87 6 81 87 77 6 71 77</t>
+  </si>
+  <si>
+    <t>1 Herberger, Jeff - Jorde, Jake 71 68 139 Jeff Herberger 82 4 78 82 81 4 77 79 Jake Jorde 77 0 77 77 73 0 73 73</t>
+  </si>
+  <si>
+    <t>1 Bartsch, Jason - Krogstad, Brad 73 67 140 Jason Bartsch 89 8 81 88 81 8 73 81 Brad Krogstad 88 5 83 86 83 5 78 82</t>
+  </si>
+  <si>
+    <t>2 Dangel, Scott - Freeze, Troy 65 57 122 Scott Dangel 85 13 72 85 76 13 63 76 Troy Freeze 84 11 73 84 73 11 62 73</t>
+  </si>
+  <si>
+    <t>2 Wald, Dewey - Wald, Jeff 66 64 130 Dewey Wald 84 12 72 84 80 12 68 80 Jeff Wald 82 7 75 81 80 7 73 80</t>
+  </si>
+  <si>
+    <t>2 Benson, Michael - Pesicka, Jay 67 66 133 Michael Benson 101 21 80 101 96 21 75 96 Jay Pesicka 76 3 73 76 77 3 74 77</t>
+  </si>
+  <si>
+    <t>2 Anderson, Scott - Haseleu, Jeff 65 71 136 Scott Anderson 82 12 70 82 95 12 83 94 Jeff Haseleu 79 9 70 79 83 9 74 83</t>
+  </si>
+  <si>
+    <t>2 Schuette, Mike - Volz, Hans 67 70 137 Mike Schuette 94 15 79 93 105 15 90 103 Hans Volz 87 13 74 87 88 13 75 87</t>
+  </si>
+  <si>
+    <t>2 Evenson, Pat - Tweten, Bruce 70 67 137 Pat Evenson 88 13 75 88 83 13 70 83 Bruce Tweten 80 7 73 80 85 7 78 85</t>
+  </si>
+  <si>
+    <t>2 Borg, Dan - Ness, Andy 67 71 138 Dan Borg 89 10 79 89 83 10 73 83 Andy Ness 95 15 80 95 102 15 87 101</t>
+  </si>
+  <si>
+    <t>2 Ahrens, Brad - Grondahl, Troy 69 69 138 Brad Ahrens 91 18 73 89 96 18 78 95 Troy Grondahl 90 9 81 90 88 9 79 86</t>
+  </si>
+  <si>
+    <t>2 Hinners, Scott - Levitt, Rick 73 66 139 Scott Hinners 85 9 76 85 83 9 74 83 Rick Levitt 95 13 82 94 86 13 73 86</t>
+  </si>
+  <si>
+    <t>2 Blackburn, John - Podolak, Wayne 71 69 140 John Blackburn 90 10 80 88 89 10 79 89 Wayne Podolak 91 16 75 91 91 16 75 91</t>
+  </si>
+  <si>
+    <t>3 Larson, Vincent - Schneeweiss, Barak 56 67 123 Vincent Larson 91 22 69 91 97 22 75 97 Barak Schneeweiss 87 11 76 87 89 11 78 89</t>
+  </si>
+  <si>
+    <t>3 Robertson, Greg - Smith, Matthew 62 64 126 Greg Robertson 83 15 68 83 91 15 76 90 Matthew Smith 88 17 71 88 91 17 74 90</t>
+  </si>
+  <si>
+    <t>3 Thayer, KT - Wurmlinger, Jeff 59 67 126 KT Thayer 95 20 75 95 98 20 78 98 Jeff Wurmlinger 85 14 71 85 99 14 85 99</t>
+  </si>
+  <si>
+    <t>3 Hanson, Scott - Quarders, Ian 66 64 130 Scott Hanson 98 18 80 96 99 18 81 98 Ian Quarders 89 14 75 88 86 14 72 86</t>
+  </si>
+  <si>
+    <t>3 Harris, Brent - Olson, Randy 62 70 132 Brent Harris 81 18 63 81 89 18 71 89 Randy Olson 103 20 83 103 108 20 88 108</t>
+  </si>
+  <si>
+    <t>3 Eldredge, Bart - Van Dyk, Joel 66 69 135 Bart Eldredge 95 17 78 95 95 17 78 95 Joel Van Dyk 93 21 72 93 93 21 72 93</t>
+  </si>
+  <si>
+    <t>3 Gies, Clyde - Gies, Jon 67 69 136 Clyde Gies 96 23 73 96 93 23 70 93 Jon Gies 89 9 80 87 88 9 79 88</t>
+  </si>
+  <si>
+    <t>3 Carlson, Randy - Stork, Mike 70 66 136 Randy Carlson 103 23 80 103 109 23 86 109 Mike Stork 89 11 78 89 84 11 73 81</t>
+  </si>
+  <si>
+    <t>3 Clark, Jim - Wald, Patti 66 72 138 Jim Clark 76 4 72 76 80 4 76 80 Patti Wald 111 29 82 111 118 29 89 118</t>
+  </si>
+  <si>
+    <t>3 Bichler, Joe - Bichler, Mike 65 74 139 Joe Bichler 90 17 73 90 104 17 87 102 Mike Bichler 91 16 75 91 97 16 81 96</t>
+  </si>
+  <si>
+    <t>3 Gies, Jeremy - Hannah, Steve 75 65 140 Jeremy Gies 100 19 81 100 96 19 77 96 Steve Hannah 105 20 85 105 90 20 70 90</t>
+  </si>
+  <si>
+    <t>4 Billstin, Garth - Stafford, Christopher 62 68 130 Garth Billstin 100 18 82 100 97 18 79 97 Christopher Stafford 101 32 69 101 105 32 73 105</t>
+  </si>
+  <si>
+    <t>4 Cruzan, Bob - Zinis, Jim 69 61 130 Bob Cruzan 102 23 79 102 97 23 74 97 Jim Zinis 103 20 83 103 91 20 71 91</t>
+  </si>
+  <si>
+    <t>4 Hagen, Marshal - Liuska, Dwane 68 64 132 Marshal Hagen 100 23 77 98 95 23 72 94 Dwane Liuska 109 22 87 106 102 22 80 100</t>
+  </si>
+  <si>
+    <t>4 Roseleip, Laura - Roseleip, Mike 67 65 132 Laura Roseleip 114 38 76 114 112 38 74 112 Mike Roseleip 125 35 90 125 116 35 81 116</t>
+  </si>
+  <si>
+    <t>4 Mondala, Mitch - Podolak, Andy 67 66 133 Mitch Mondala 107 34 73 107 105 34 71 105 Andy Podolak 96 19 77 96 93 19 74 93</t>
+  </si>
+  <si>
+    <t>4 Dadisman, Dick - Podolak, Darryl 68 66 134 Dick Dadisman 94 14 80 94 88 14 74 88 Darryl Podolak 108 27 81 107 106 27 79 106</t>
+  </si>
+  <si>
+    <t>4 Becker, Rick - Stork, Dave 69 66 135 Rick Becker 90 17 73 89 96 17 79 96 Dave Stork 103 23 80 103 99 23 76 99</t>
+  </si>
+  <si>
+    <t>4 Bess, Nate - Pitts, Travis 68 72 140 Nate Bess 111 32 79 111 111 32 79 111 Travis Pitts 102 20 82 102 100 20 80 100</t>
+  </si>
+  <si>
+    <t>4 Hefta, Neil - McAndrew, Steve 71 73 144 Neil Hefta 105 21 84 105 103 21 82 102 Steve McAndrew 97 22 75 97 100 22 78 99</t>
+  </si>
+  <si>
+    <t>4 Guldseth, Scott - Johnson, Corey 74 79 153 Scott Guldseth 101 20 81 101 109 20 89 109 Corey Johnson 110 28 82 110 113 28 85 113</t>
+  </si>
+  <si>
+    <t>4 Coughlin, Sean - Pagliaruli, Peter 79 74 153 Sean Coughlin 124 34 90 121 118 34 84 118 Peter Pagliaruli 117 24 93 115 114 24 90 113</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1910,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1808,9 +1939,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2139,11 +2276,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -2286,10 +2422,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6598,6 +6734,2092 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>573</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>573</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="57">
+        <v>16.3</v>
+      </c>
+      <c r="C2" s="57">
+        <v>1</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>476</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="G2" s="57">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H2" s="57">
+        <v>3</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="55">
+        <v>17.3</v>
+      </c>
+      <c r="C3" s="55">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" s="55">
+        <v>53.8</v>
+      </c>
+      <c r="H3" s="55">
+        <v>4</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="53">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C4" s="53">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="G4" s="53">
+        <v>57.9</v>
+      </c>
+      <c r="H4" s="53">
+        <v>4</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" s="55">
+        <v>13.2</v>
+      </c>
+      <c r="C5" s="55">
+        <v>1</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="G5" s="55">
+        <v>73.7</v>
+      </c>
+      <c r="H5" s="55">
+        <v>4</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="53">
+        <v>31.4</v>
+      </c>
+      <c r="C6" s="53">
+        <v>3</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>539</v>
+      </c>
+      <c r="G6" s="53">
+        <v>40.4</v>
+      </c>
+      <c r="H6" s="53">
+        <v>4</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" s="55">
+        <v>73.7</v>
+      </c>
+      <c r="C7" s="55">
+        <v>4</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>539</v>
+      </c>
+      <c r="G7" s="55">
+        <v>52.2</v>
+      </c>
+      <c r="H7" s="55">
+        <v>4</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8" s="53">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C8" s="53">
+        <v>3</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>540</v>
+      </c>
+      <c r="G8" s="53">
+        <v>38.5</v>
+      </c>
+      <c r="H8" s="53">
+        <v>3</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9" s="55">
+        <v>53.8</v>
+      </c>
+      <c r="C9" s="55">
+        <v>4</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>540</v>
+      </c>
+      <c r="G9" s="55">
+        <v>49.6</v>
+      </c>
+      <c r="H9" s="55">
+        <v>4</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10" s="53">
+        <v>32.6</v>
+      </c>
+      <c r="C10" s="53">
+        <v>3</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>541</v>
+      </c>
+      <c r="G10" s="53">
+        <v>25</v>
+      </c>
+      <c r="H10" s="53">
+        <v>2</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11" s="55">
+        <v>57.9</v>
+      </c>
+      <c r="C11" s="55">
+        <v>4</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="G11" s="55">
+        <v>33.9</v>
+      </c>
+      <c r="H11" s="55">
+        <v>3</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" s="53">
+        <v>25</v>
+      </c>
+      <c r="C12" s="53">
+        <v>2</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>542</v>
+      </c>
+      <c r="G12" s="53">
+        <v>31.4</v>
+      </c>
+      <c r="H12" s="53">
+        <v>3</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" s="55">
+        <v>52.2</v>
+      </c>
+      <c r="C13" s="55">
+        <v>4</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="G13" s="55">
+        <v>42.9</v>
+      </c>
+      <c r="H13" s="55">
+        <v>4</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="B14" s="53">
+        <v>40.9</v>
+      </c>
+      <c r="C14" s="53">
+        <v>4</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>551</v>
+      </c>
+      <c r="G14" s="53">
+        <v>21.5</v>
+      </c>
+      <c r="H14" s="53">
+        <v>2</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>491</v>
+      </c>
+      <c r="B15" s="55">
+        <v>42.9</v>
+      </c>
+      <c r="C15" s="55">
+        <v>4</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="F15" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="G15" s="55">
+        <v>25.7</v>
+      </c>
+      <c r="H15" s="55">
+        <v>2</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>494</v>
+      </c>
+      <c r="B16" s="53">
+        <v>33.9</v>
+      </c>
+      <c r="C16" s="53">
+        <v>3</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="G16" s="53">
+        <v>26.8</v>
+      </c>
+      <c r="H16" s="53">
+        <v>2</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17" s="55">
+        <v>40.4</v>
+      </c>
+      <c r="C17" s="55">
+        <v>4</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="G17" s="55">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H17" s="55">
+        <v>3</v>
+      </c>
+      <c r="I17" s="51" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>497</v>
+      </c>
+      <c r="B18" s="53">
+        <v>23.9</v>
+      </c>
+      <c r="C18" s="53">
+        <v>2</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>499</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>543</v>
+      </c>
+      <c r="G18" s="53">
+        <v>19.3</v>
+      </c>
+      <c r="H18" s="53">
+        <v>2</v>
+      </c>
+      <c r="I18" s="47" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="B19" s="55">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C19" s="55">
+        <v>3</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>498</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>543</v>
+      </c>
+      <c r="G19" s="55">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H19" s="55">
+        <v>3</v>
+      </c>
+      <c r="I19" s="51" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" s="53">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C20" s="53">
+        <v>3</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>544</v>
+      </c>
+      <c r="G20" s="53">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="H20" s="53">
+        <v>3</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="B21" s="55">
+        <v>49.6</v>
+      </c>
+      <c r="C21" s="55">
+        <v>4</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="G21" s="55">
+        <v>40.9</v>
+      </c>
+      <c r="H21" s="55">
+        <v>4</v>
+      </c>
+      <c r="I21" s="51" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22" s="53">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="C22" s="53">
+        <v>3</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>545</v>
+      </c>
+      <c r="G22" s="53">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H22" s="53">
+        <v>1</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="54" t="s">
+        <v>535</v>
+      </c>
+      <c r="B23" s="55">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C23" s="55">
+        <v>3</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>545</v>
+      </c>
+      <c r="G23" s="55">
+        <v>24.1</v>
+      </c>
+      <c r="H23" s="55">
+        <v>2</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="B24" s="53">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C24" s="53">
+        <v>3</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>546</v>
+      </c>
+      <c r="G24" s="53">
+        <v>32.6</v>
+      </c>
+      <c r="H24" s="53">
+        <v>3</v>
+      </c>
+      <c r="I24" s="47" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>536</v>
+      </c>
+      <c r="B25" s="55">
+        <v>38.5</v>
+      </c>
+      <c r="C25" s="55">
+        <v>3</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>546</v>
+      </c>
+      <c r="G25" s="55">
+        <v>44.1</v>
+      </c>
+      <c r="H25" s="55">
+        <v>4</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" s="53">
+        <v>19.3</v>
+      </c>
+      <c r="C26" s="53">
+        <v>2</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="G26" s="53">
+        <v>15.1</v>
+      </c>
+      <c r="H26" s="53">
+        <v>1</v>
+      </c>
+      <c r="I26" s="47" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="B27" s="55">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C27" s="55">
+        <v>3</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>483</v>
+      </c>
+      <c r="G27" s="55">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H27" s="55">
+        <v>2</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>510</v>
+      </c>
+      <c r="B28" s="53">
+        <v>20.5</v>
+      </c>
+      <c r="C28" s="53">
+        <v>2</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="G28" s="53">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H28" s="53">
+        <v>3</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>510</v>
+      </c>
+      <c r="B29" s="55">
+        <v>48.3</v>
+      </c>
+      <c r="C29" s="55">
+        <v>4</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>511</v>
+      </c>
+      <c r="F29" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="G29" s="55">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H29" s="55">
+        <v>3</v>
+      </c>
+      <c r="I29" s="51" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" s="53">
+        <v>13.1</v>
+      </c>
+      <c r="C30" s="53">
+        <v>1</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>515</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>547</v>
+      </c>
+      <c r="G30" s="53">
+        <v>7.4</v>
+      </c>
+      <c r="H30" s="53">
+        <v>1</v>
+      </c>
+      <c r="I30" s="47" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="54" t="s">
+        <v>513</v>
+      </c>
+      <c r="B31" s="55">
+        <v>21.5</v>
+      </c>
+      <c r="C31" s="55">
+        <v>2</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="G31" s="55">
+        <v>23.9</v>
+      </c>
+      <c r="H31" s="55">
+        <v>2</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="B32" s="53">
+        <v>24.1</v>
+      </c>
+      <c r="C32" s="53">
+        <v>2</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>523</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="G32" s="53">
+        <v>13.2</v>
+      </c>
+      <c r="H32" s="53">
+        <v>1</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B33" s="55">
+        <v>42.5</v>
+      </c>
+      <c r="C33" s="55">
+        <v>4</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>548</v>
+      </c>
+      <c r="G33" s="55">
+        <v>28.2</v>
+      </c>
+      <c r="H33" s="55">
+        <v>2</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="B34" s="53">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C34" s="53">
+        <v>1</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="G34" s="53">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H34" s="53">
+        <v>1</v>
+      </c>
+      <c r="I34" s="47" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="B35" s="55">
+        <v>25.7</v>
+      </c>
+      <c r="C35" s="55">
+        <v>2</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>521</v>
+      </c>
+      <c r="F35" s="54" t="s">
+        <v>553</v>
+      </c>
+      <c r="G35" s="55">
+        <v>42.5</v>
+      </c>
+      <c r="H35" s="55">
+        <v>4</v>
+      </c>
+      <c r="I35" s="51" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>522</v>
+      </c>
+      <c r="B36" s="53">
+        <v>28.2</v>
+      </c>
+      <c r="C36" s="53">
+        <v>2</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>518</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>497</v>
+      </c>
+      <c r="G36" s="53">
+        <v>13.1</v>
+      </c>
+      <c r="H36" s="53">
+        <v>1</v>
+      </c>
+      <c r="I36" s="47" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B37" s="55">
+        <v>44.1</v>
+      </c>
+      <c r="C37" s="55">
+        <v>4</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="G37" s="55">
+        <v>20.5</v>
+      </c>
+      <c r="H37" s="55">
+        <v>2</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="B38" s="53">
+        <v>7.4</v>
+      </c>
+      <c r="C38" s="53">
+        <v>1</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>525</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>500</v>
+      </c>
+      <c r="G38" s="53">
+        <v>4.3</v>
+      </c>
+      <c r="H38" s="53">
+        <v>1</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="B39" s="55">
+        <v>15.1</v>
+      </c>
+      <c r="C39" s="55">
+        <v>1</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>526</v>
+      </c>
+      <c r="F39" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="G39" s="55">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H39" s="55">
+        <v>3</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>527</v>
+      </c>
+      <c r="B40" s="53">
+        <v>4.3</v>
+      </c>
+      <c r="C40" s="53">
+        <v>1</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>528</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="G40" s="53">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H40" s="53">
+        <v>1</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
+        <v>527</v>
+      </c>
+      <c r="B41" s="55">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C41" s="55">
+        <v>1</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>549</v>
+      </c>
+      <c r="G41" s="55">
+        <v>17.3</v>
+      </c>
+      <c r="H41" s="55">
+        <v>1</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="B42" s="53">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C42" s="53">
+        <v>2</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>532</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>550</v>
+      </c>
+      <c r="G42" s="53">
+        <v>16.3</v>
+      </c>
+      <c r="H42" s="53">
+        <v>1</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
+        <v>530</v>
+      </c>
+      <c r="B43" s="55">
+        <v>26.8</v>
+      </c>
+      <c r="C43" s="55">
+        <v>2</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>512</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>550</v>
+      </c>
+      <c r="G43" s="55">
+        <v>48.3</v>
+      </c>
+      <c r="H43" s="55">
+        <v>4</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="F2:I43">
+    <sortCondition ref="F2:F43"/>
+    <sortCondition ref="G2:G43"/>
+  </sortState>
+  <customSheetViews>
+    <customSheetView guid="{0207575D-3FDA-441D-8E09-487CC75706CC}">
+      <selection activeCell="I4" sqref="I4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.35" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="42" t="s">
+        <v>561</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="N8" s="39"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="32">
+        <v>-0.3</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="32">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="K10" s="32">
+        <v>14.9</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="O10" s="32">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="G11" s="32">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="K11" s="32">
+        <v>15</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="O11" s="32">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="G12" s="32">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="K12" s="32">
+        <v>15.3</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="O12" s="32">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="32">
+        <v>3.9</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="G13" s="32">
+        <v>10.3</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="K13" s="32">
+        <v>15.8</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="O13" s="32">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="32">
+        <v>10.5</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="K14" s="32">
+        <v>15.9</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="O14" s="32">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="32">
+        <v>4.2</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="G15" s="32">
+        <v>10.5</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="K15" s="32">
+        <v>16.5</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="O15" s="32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="32">
+        <v>4.3</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="G16" s="32">
+        <v>11.4</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="K16" s="32">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="O16" s="32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="32">
+        <v>4.8</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="G17" s="32">
+        <v>11.6</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="K17" s="32">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="O17" s="32">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="G18" s="32">
+        <v>11.9</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="K18" s="32">
+        <v>17.3</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="O18" s="32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C19" s="32">
+        <v>6.2</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="G19" s="32">
+        <v>12.1</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="K19" s="32">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="O19" s="32">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C20" s="32">
+        <v>6.9</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="G20" s="32">
+        <v>12.2</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="K20" s="32">
+        <v>18</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="O20" s="32">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" s="32">
+        <v>7</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G21" s="32">
+        <v>12.9</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="K21" s="32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="O21" s="32">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" s="32">
+        <v>7.7</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="G22" s="32">
+        <v>13.2</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="K22" s="32">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="O22" s="32">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C23" s="32">
+        <v>8.4</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="G23" s="32">
+        <v>13.4</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="K23" s="32">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="O23" s="32">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="C24" s="32">
+        <v>8.6</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24" s="32">
+        <v>13.7</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="K24" s="32">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="O24" s="32">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33"/>
+      <c r="B25" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="C25" s="32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="G25" s="32">
+        <v>14.2</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="K25" s="32">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="O25" s="36">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="32">
+        <v>8.9</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="G26" s="36">
+        <v>14.4</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="K26" s="36">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C27" s="32">
+        <v>8.9</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="32">
+        <v>8.9</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34"/>
+      <c r="B29" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" s="36">
+        <v>8.9</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{0207575D-3FDA-441D-8E09-487CC75706CC}" showPageBreaks="1" topLeftCell="A13">
+      <selection activeCell="F28" sqref="F28"/>
+      <pageMargins left="0.45" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="landscape" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.45" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6965,7 +9187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
@@ -7334,7 +9556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -9852,8 +12074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11054,7 +13276,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E62" s="78" t="s">
+      <c r="E62" t="s">
         <v>236</v>
       </c>
     </row>
@@ -11494,14 +13716,257 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
-  <hyperlinks>
-    <hyperlink ref="E62" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="79" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="79" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="79" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="79" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="79" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="79" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="79" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="79" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="79" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="79" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="79" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="79" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="79" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="79" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="79" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="79" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="79" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="79" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="79" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="79" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="79" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="79" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="79" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="79" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="79" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="79" t="s">
+        <v>616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
@@ -11572,7 +14037,7 @@
         <v>14.9</v>
       </c>
       <c r="I2" s="75">
-        <f>ROUND(H2,0)</f>
+        <f t="shared" ref="I2:I24" si="0">ROUND(H2,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -11587,7 +14052,7 @@
         <v>-0.3</v>
       </c>
       <c r="D3" s="76">
-        <f t="shared" ref="D3:D42" si="0">ROUND(C3,0)</f>
+        <f t="shared" ref="D3:D42" si="1">ROUND(C3,0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="48" t="s">
@@ -11600,7 +14065,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="76">
-        <f>ROUND(H3,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -11615,7 +14080,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4" s="48" t="s">
@@ -11628,7 +14093,7 @@
         <v>15.3</v>
       </c>
       <c r="I4" s="76">
-        <f>ROUND(H4,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -11643,7 +14108,7 @@
         <v>0.2</v>
       </c>
       <c r="D5" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5" s="48" t="s">
@@ -11656,7 +14121,7 @@
         <v>15.8</v>
       </c>
       <c r="I5" s="76">
-        <f>ROUND(H5,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -11671,7 +14136,7 @@
         <v>3.2</v>
       </c>
       <c r="D6" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F6" s="48" t="s">
@@ -11684,7 +14149,7 @@
         <v>15.9</v>
       </c>
       <c r="I6" s="76">
-        <f>ROUND(H6,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -11699,7 +14164,7 @@
         <v>3.9</v>
       </c>
       <c r="D7" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F7" s="48" t="s">
@@ -11712,7 +14177,7 @@
         <v>16.5</v>
       </c>
       <c r="I7" s="76">
-        <f>ROUND(H7,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -11727,7 +14192,7 @@
         <v>4.2</v>
       </c>
       <c r="D8" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F8" s="48" t="s">
@@ -11740,7 +14205,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I8" s="76">
-        <f>ROUND(H8,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -11755,7 +14220,7 @@
         <v>4.2</v>
       </c>
       <c r="D9" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F9" s="48" t="s">
@@ -11768,7 +14233,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I9" s="76">
-        <f>ROUND(H9,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -11783,7 +14248,7 @@
         <v>4.3</v>
       </c>
       <c r="D10" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F10" s="48" t="s">
@@ -11796,7 +14261,7 @@
         <v>17.3</v>
       </c>
       <c r="I10" s="76">
-        <f>ROUND(H10,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -11811,7 +14276,7 @@
         <v>4.8</v>
       </c>
       <c r="D11" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F11" s="48" t="s">
@@ -11824,7 +14289,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I11" s="76">
-        <f>ROUND(H11,0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -11839,7 +14304,7 @@
         <v>6.2</v>
       </c>
       <c r="D12" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F12" s="48" t="s">
@@ -11852,7 +14317,7 @@
         <v>18</v>
       </c>
       <c r="I12" s="76">
-        <f>ROUND(H12,0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -11867,7 +14332,7 @@
         <v>6.2</v>
       </c>
       <c r="D13" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F13" s="48" t="s">
@@ -11880,7 +14345,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="I13" s="76">
-        <f>ROUND(H13,0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -11895,7 +14360,7 @@
         <v>6.9</v>
       </c>
       <c r="D14" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F14" s="48" t="s">
@@ -11908,7 +14373,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="I14" s="76">
-        <f>ROUND(H14,0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -11923,7 +14388,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F15" s="48" t="s">
@@ -11936,7 +14401,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="I15" s="76">
-        <f>ROUND(H15,0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -11951,7 +14416,7 @@
         <v>7.1</v>
       </c>
       <c r="D16" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F16" s="48" t="s">
@@ -11964,7 +14429,7 @@
         <v>19.399999999999999</v>
       </c>
       <c r="I16" s="76">
-        <f>ROUND(H16,0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
@@ -11979,7 +14444,7 @@
         <v>7.7</v>
       </c>
       <c r="D17" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F17" s="48" t="s">
@@ -11992,7 +14457,7 @@
         <v>19.600000000000001</v>
       </c>
       <c r="I17" s="76">
-        <f>ROUND(H17,0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -12007,7 +14472,7 @@
         <v>8.4</v>
       </c>
       <c r="D18" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F18" s="48" t="s">
@@ -12020,7 +14485,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="I18" s="76">
-        <f>ROUND(H18,0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -12035,7 +14500,7 @@
         <v>8.6</v>
       </c>
       <c r="D19" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F19" s="48" t="s">
@@ -12048,7 +14513,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="I19" s="76">
-        <f>ROUND(H19,0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -12063,7 +14528,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="D20" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F20" s="48" t="s">
@@ -12076,7 +14541,7 @@
         <v>20</v>
       </c>
       <c r="I20" s="76">
-        <f>ROUND(H20,0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -12091,7 +14556,7 @@
         <v>8.9</v>
       </c>
       <c r="D21" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F21" s="48" t="s">
@@ -12104,7 +14569,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I21" s="76">
-        <f>ROUND(H21,0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -12119,7 +14584,7 @@
         <v>8.9</v>
       </c>
       <c r="D22" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F22" s="48" t="s">
@@ -12132,7 +14597,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I22" s="76">
-        <f>ROUND(H22,0)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -12147,7 +14612,7 @@
         <v>8.9</v>
       </c>
       <c r="D23" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F23" s="48" t="s">
@@ -12160,7 +14625,7 @@
         <v>20.9</v>
       </c>
       <c r="I23" s="76">
-        <f>ROUND(H23,0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -12175,7 +14640,7 @@
         <v>8.9</v>
       </c>
       <c r="D24" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F24" s="48" t="s">
@@ -12188,7 +14653,7 @@
         <v>20.9</v>
       </c>
       <c r="I24" s="76">
-        <f>ROUND(H24,0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -12203,7 +14668,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="D25" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="F25" s="48" t="s">
@@ -12216,7 +14681,7 @@
         <v>21.4</v>
       </c>
       <c r="I25" s="76">
-        <f t="shared" ref="I25:I43" si="1">ROUND(H25,0)</f>
+        <f t="shared" ref="I25:I43" si="2">ROUND(H25,0)</f>
         <v>21</v>
       </c>
     </row>
@@ -12231,7 +14696,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="D26" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F26" s="48" t="s">
@@ -12244,7 +14709,7 @@
         <v>21.5</v>
       </c>
       <c r="I26" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -12259,7 +14724,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D27" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F27" s="48" t="s">
@@ -12272,7 +14737,7 @@
         <v>21.6</v>
       </c>
       <c r="I27" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -12287,7 +14752,7 @@
         <v>10.3</v>
       </c>
       <c r="D28" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="F28" s="48" t="s">
@@ -12300,7 +14765,7 @@
         <v>22.1</v>
       </c>
       <c r="I28" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -12315,7 +14780,7 @@
         <v>10.5</v>
       </c>
       <c r="D29" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F29" s="48" t="s">
@@ -12328,7 +14793,7 @@
         <v>22.5</v>
       </c>
       <c r="I29" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -12343,7 +14808,7 @@
         <v>10.5</v>
       </c>
       <c r="D30" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F30" s="48" t="s">
@@ -12356,7 +14821,7 @@
         <v>22.6</v>
       </c>
       <c r="I30" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -12371,7 +14836,7 @@
         <v>11.4</v>
       </c>
       <c r="D31" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F31" s="48" t="s">
@@ -12384,7 +14849,7 @@
         <v>23</v>
       </c>
       <c r="I31" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -12399,7 +14864,7 @@
         <v>11.6</v>
       </c>
       <c r="D32" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F32" s="48" t="s">
@@ -12412,7 +14877,7 @@
         <v>23</v>
       </c>
       <c r="I32" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -12427,7 +14892,7 @@
         <v>11.6</v>
       </c>
       <c r="D33" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F33" s="48" t="s">
@@ -12440,7 +14905,7 @@
         <v>23.1</v>
       </c>
       <c r="I33" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -12455,7 +14920,7 @@
         <v>11.9</v>
       </c>
       <c r="D34" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F34" s="48" t="s">
@@ -12468,7 +14933,7 @@
         <v>24</v>
       </c>
       <c r="I34" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -12483,7 +14948,7 @@
         <v>12.1</v>
       </c>
       <c r="D35" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F35" s="48" t="s">
@@ -12496,7 +14961,7 @@
         <v>26.5</v>
       </c>
       <c r="I35" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -12511,7 +14976,7 @@
         <v>12.2</v>
       </c>
       <c r="D36" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F36" s="48" t="s">
@@ -12524,7 +14989,7 @@
         <v>28.3</v>
       </c>
       <c r="I36" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
@@ -12539,7 +15004,7 @@
         <v>12.9</v>
       </c>
       <c r="D37" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F37" s="48" t="s">
@@ -12552,7 +15017,7 @@
         <v>28.8</v>
       </c>
       <c r="I37" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
@@ -12567,7 +15032,7 @@
         <v>13.2</v>
       </c>
       <c r="D38" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F38" s="48" t="s">
@@ -12580,7 +15045,7 @@
         <v>31.5</v>
       </c>
       <c r="I38" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -12595,7 +15060,7 @@
         <v>13.2</v>
       </c>
       <c r="D39" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F39" s="48" t="s">
@@ -12608,7 +15073,7 @@
         <v>32.1</v>
       </c>
       <c r="I39" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -12623,7 +15088,7 @@
         <v>13.4</v>
       </c>
       <c r="D40" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="F40" s="48" t="s">
@@ -12636,7 +15101,7 @@
         <v>33.9</v>
       </c>
       <c r="I40" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -12651,7 +15116,7 @@
         <v>13.7</v>
       </c>
       <c r="D41" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F41" s="48" t="s">
@@ -12664,7 +15129,7 @@
         <v>34.4</v>
       </c>
       <c r="I41" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -12679,7 +15144,7 @@
         <v>14.2</v>
       </c>
       <c r="D42" s="76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F42" s="48" t="s">
@@ -12692,7 +15157,7 @@
         <v>35.299999999999997</v>
       </c>
       <c r="I42" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
@@ -12720,7 +15185,7 @@
         <v>38.4</v>
       </c>
       <c r="I43" s="77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
     </row>
@@ -12730,7 +15195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y43"/>
   <sheetViews>
@@ -14783,7 +17248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F74"/>
   <sheetViews>
@@ -16290,7 +18755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
@@ -17404,2090 +19869,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToWidth="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>569</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>573</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>569</v>
-      </c>
-      <c r="G1" s="59" t="s">
-        <v>363</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>573</v>
-      </c>
-      <c r="I1" s="45" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>475</v>
-      </c>
-      <c r="B2" s="57">
-        <v>16.3</v>
-      </c>
-      <c r="C2" s="57">
-        <v>1</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>475</v>
-      </c>
-      <c r="G2" s="57">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="H2" s="57">
-        <v>3</v>
-      </c>
-      <c r="I2" s="49" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>475</v>
-      </c>
-      <c r="B3" s="55">
-        <v>17.3</v>
-      </c>
-      <c r="C3" s="55">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>477</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>475</v>
-      </c>
-      <c r="G3" s="55">
-        <v>53.8</v>
-      </c>
-      <c r="H3" s="55">
-        <v>4</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>478</v>
-      </c>
-      <c r="B4" s="53">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C4" s="53">
-        <v>1</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>480</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>478</v>
-      </c>
-      <c r="G4" s="53">
-        <v>57.9</v>
-      </c>
-      <c r="H4" s="53">
-        <v>4</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>478</v>
-      </c>
-      <c r="B5" s="55">
-        <v>13.2</v>
-      </c>
-      <c r="C5" s="55">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>478</v>
-      </c>
-      <c r="G5" s="55">
-        <v>73.7</v>
-      </c>
-      <c r="H5" s="55">
-        <v>4</v>
-      </c>
-      <c r="I5" s="51" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>533</v>
-      </c>
-      <c r="B6" s="53">
-        <v>31.4</v>
-      </c>
-      <c r="C6" s="53">
-        <v>3</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>482</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>539</v>
-      </c>
-      <c r="G6" s="53">
-        <v>40.4</v>
-      </c>
-      <c r="H6" s="53">
-        <v>4</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>533</v>
-      </c>
-      <c r="B7" s="55">
-        <v>73.7</v>
-      </c>
-      <c r="C7" s="55">
-        <v>4</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>481</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>539</v>
-      </c>
-      <c r="G7" s="55">
-        <v>52.2</v>
-      </c>
-      <c r="H7" s="55">
-        <v>4</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="B8" s="53">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="C8" s="53">
-        <v>3</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>485</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>540</v>
-      </c>
-      <c r="G8" s="53">
-        <v>38.5</v>
-      </c>
-      <c r="H8" s="53">
-        <v>3</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>483</v>
-      </c>
-      <c r="B9" s="55">
-        <v>53.8</v>
-      </c>
-      <c r="C9" s="55">
-        <v>4</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>484</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>540</v>
-      </c>
-      <c r="G9" s="55">
-        <v>49.6</v>
-      </c>
-      <c r="H9" s="55">
-        <v>4</v>
-      </c>
-      <c r="I9" s="51" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>486</v>
-      </c>
-      <c r="B10" s="53">
-        <v>32.6</v>
-      </c>
-      <c r="C10" s="53">
-        <v>3</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>487</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>541</v>
-      </c>
-      <c r="G10" s="53">
-        <v>25</v>
-      </c>
-      <c r="H10" s="53">
-        <v>2</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>486</v>
-      </c>
-      <c r="B11" s="55">
-        <v>57.9</v>
-      </c>
-      <c r="C11" s="55">
-        <v>4</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>488</v>
-      </c>
-      <c r="F11" s="54" t="s">
-        <v>541</v>
-      </c>
-      <c r="G11" s="55">
-        <v>33.9</v>
-      </c>
-      <c r="H11" s="55">
-        <v>3</v>
-      </c>
-      <c r="I11" s="51" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>534</v>
-      </c>
-      <c r="B12" s="53">
-        <v>25</v>
-      </c>
-      <c r="C12" s="53">
-        <v>2</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>542</v>
-      </c>
-      <c r="G12" s="53">
-        <v>31.4</v>
-      </c>
-      <c r="H12" s="53">
-        <v>3</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>534</v>
-      </c>
-      <c r="B13" s="55">
-        <v>52.2</v>
-      </c>
-      <c r="C13" s="55">
-        <v>4</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>490</v>
-      </c>
-      <c r="F13" s="54" t="s">
-        <v>542</v>
-      </c>
-      <c r="G13" s="55">
-        <v>42.9</v>
-      </c>
-      <c r="H13" s="55">
-        <v>4</v>
-      </c>
-      <c r="I13" s="51" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>491</v>
-      </c>
-      <c r="B14" s="53">
-        <v>40.9</v>
-      </c>
-      <c r="C14" s="53">
-        <v>4</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>551</v>
-      </c>
-      <c r="G14" s="53">
-        <v>21.5</v>
-      </c>
-      <c r="H14" s="53">
-        <v>2</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
-        <v>491</v>
-      </c>
-      <c r="B15" s="55">
-        <v>42.9</v>
-      </c>
-      <c r="C15" s="55">
-        <v>4</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>493</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>551</v>
-      </c>
-      <c r="G15" s="55">
-        <v>25.7</v>
-      </c>
-      <c r="H15" s="55">
-        <v>2</v>
-      </c>
-      <c r="I15" s="51" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
-        <v>494</v>
-      </c>
-      <c r="B16" s="53">
-        <v>33.9</v>
-      </c>
-      <c r="C16" s="53">
-        <v>3</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>496</v>
-      </c>
-      <c r="F16" s="52" t="s">
-        <v>552</v>
-      </c>
-      <c r="G16" s="53">
-        <v>26.8</v>
-      </c>
-      <c r="H16" s="53">
-        <v>2</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
-        <v>494</v>
-      </c>
-      <c r="B17" s="55">
-        <v>40.4</v>
-      </c>
-      <c r="C17" s="55">
-        <v>4</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>495</v>
-      </c>
-      <c r="F17" s="54" t="s">
-        <v>552</v>
-      </c>
-      <c r="G17" s="55">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="H17" s="55">
-        <v>3</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>497</v>
-      </c>
-      <c r="B18" s="53">
-        <v>23.9</v>
-      </c>
-      <c r="C18" s="53">
-        <v>2</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>499</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>543</v>
-      </c>
-      <c r="G18" s="53">
-        <v>19.3</v>
-      </c>
-      <c r="H18" s="53">
-        <v>2</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="54" t="s">
-        <v>497</v>
-      </c>
-      <c r="B19" s="55">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="C19" s="55">
-        <v>3</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>498</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>543</v>
-      </c>
-      <c r="G19" s="55">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="H19" s="55">
-        <v>3</v>
-      </c>
-      <c r="I19" s="51" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
-        <v>500</v>
-      </c>
-      <c r="B20" s="53">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="C20" s="53">
-        <v>3</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>544</v>
-      </c>
-      <c r="G20" s="53">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="H20" s="53">
-        <v>3</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="B21" s="55">
-        <v>49.6</v>
-      </c>
-      <c r="C21" s="55">
-        <v>4</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>501</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>544</v>
-      </c>
-      <c r="G21" s="55">
-        <v>40.9</v>
-      </c>
-      <c r="H21" s="55">
-        <v>4</v>
-      </c>
-      <c r="I21" s="51" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>535</v>
-      </c>
-      <c r="B22" s="53">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="C22" s="53">
-        <v>3</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>503</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>545</v>
-      </c>
-      <c r="G22" s="53">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H22" s="53">
-        <v>1</v>
-      </c>
-      <c r="I22" s="47" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
-        <v>535</v>
-      </c>
-      <c r="B23" s="55">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="C23" s="55">
-        <v>3</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>504</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>545</v>
-      </c>
-      <c r="G23" s="55">
-        <v>24.1</v>
-      </c>
-      <c r="H23" s="55">
-        <v>2</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>536</v>
-      </c>
-      <c r="B24" s="53">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="C24" s="53">
-        <v>3</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>546</v>
-      </c>
-      <c r="G24" s="53">
-        <v>32.6</v>
-      </c>
-      <c r="H24" s="53">
-        <v>3</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="54" t="s">
-        <v>536</v>
-      </c>
-      <c r="B25" s="55">
-        <v>38.5</v>
-      </c>
-      <c r="C25" s="55">
-        <v>3</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="F25" s="54" t="s">
-        <v>546</v>
-      </c>
-      <c r="G25" s="55">
-        <v>44.1</v>
-      </c>
-      <c r="H25" s="55">
-        <v>4</v>
-      </c>
-      <c r="I25" s="51" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
-        <v>507</v>
-      </c>
-      <c r="B26" s="53">
-        <v>19.3</v>
-      </c>
-      <c r="C26" s="53">
-        <v>2</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>509</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="G26" s="53">
-        <v>15.1</v>
-      </c>
-      <c r="H26" s="53">
-        <v>1</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
-        <v>507</v>
-      </c>
-      <c r="B27" s="55">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="C27" s="55">
-        <v>3</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>508</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>483</v>
-      </c>
-      <c r="G27" s="55">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="H27" s="55">
-        <v>2</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
-        <v>510</v>
-      </c>
-      <c r="B28" s="53">
-        <v>20.5</v>
-      </c>
-      <c r="C28" s="53">
-        <v>2</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>531</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>486</v>
-      </c>
-      <c r="G28" s="53">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="H28" s="53">
-        <v>3</v>
-      </c>
-      <c r="I28" s="47" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
-        <v>510</v>
-      </c>
-      <c r="B29" s="55">
-        <v>48.3</v>
-      </c>
-      <c r="C29" s="55">
-        <v>4</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="F29" s="54" t="s">
-        <v>486</v>
-      </c>
-      <c r="G29" s="55">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="H29" s="55">
-        <v>3</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>513</v>
-      </c>
-      <c r="B30" s="53">
-        <v>13.1</v>
-      </c>
-      <c r="C30" s="53">
-        <v>1</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>515</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>547</v>
-      </c>
-      <c r="G30" s="53">
-        <v>7.4</v>
-      </c>
-      <c r="H30" s="53">
-        <v>1</v>
-      </c>
-      <c r="I30" s="47" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="54" t="s">
-        <v>513</v>
-      </c>
-      <c r="B31" s="55">
-        <v>21.5</v>
-      </c>
-      <c r="C31" s="55">
-        <v>2</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>514</v>
-      </c>
-      <c r="F31" s="54" t="s">
-        <v>547</v>
-      </c>
-      <c r="G31" s="55">
-        <v>23.9</v>
-      </c>
-      <c r="H31" s="55">
-        <v>2</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>516</v>
-      </c>
-      <c r="B32" s="53">
-        <v>24.1</v>
-      </c>
-      <c r="C32" s="53">
-        <v>2</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>523</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>548</v>
-      </c>
-      <c r="G32" s="53">
-        <v>13.2</v>
-      </c>
-      <c r="H32" s="53">
-        <v>1</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
-        <v>516</v>
-      </c>
-      <c r="B33" s="55">
-        <v>42.5</v>
-      </c>
-      <c r="C33" s="55">
-        <v>4</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>517</v>
-      </c>
-      <c r="F33" s="54" t="s">
-        <v>548</v>
-      </c>
-      <c r="G33" s="55">
-        <v>28.2</v>
-      </c>
-      <c r="H33" s="55">
-        <v>2</v>
-      </c>
-      <c r="I33" s="51" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
-        <v>519</v>
-      </c>
-      <c r="B34" s="53">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C34" s="53">
-        <v>1</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>520</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>553</v>
-      </c>
-      <c r="G34" s="53">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H34" s="53">
-        <v>1</v>
-      </c>
-      <c r="I34" s="47" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
-        <v>519</v>
-      </c>
-      <c r="B35" s="55">
-        <v>25.7</v>
-      </c>
-      <c r="C35" s="55">
-        <v>2</v>
-      </c>
-      <c r="D35" s="51" t="s">
-        <v>521</v>
-      </c>
-      <c r="F35" s="54" t="s">
-        <v>553</v>
-      </c>
-      <c r="G35" s="55">
-        <v>42.5</v>
-      </c>
-      <c r="H35" s="55">
-        <v>4</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
-        <v>522</v>
-      </c>
-      <c r="B36" s="53">
-        <v>28.2</v>
-      </c>
-      <c r="C36" s="53">
-        <v>2</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>518</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>497</v>
-      </c>
-      <c r="G36" s="53">
-        <v>13.1</v>
-      </c>
-      <c r="H36" s="53">
-        <v>1</v>
-      </c>
-      <c r="I36" s="47" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
-        <v>522</v>
-      </c>
-      <c r="B37" s="55">
-        <v>44.1</v>
-      </c>
-      <c r="C37" s="55">
-        <v>4</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>524</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>497</v>
-      </c>
-      <c r="G37" s="55">
-        <v>20.5</v>
-      </c>
-      <c r="H37" s="55">
-        <v>2</v>
-      </c>
-      <c r="I37" s="51" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>537</v>
-      </c>
-      <c r="B38" s="53">
-        <v>7.4</v>
-      </c>
-      <c r="C38" s="53">
-        <v>1</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>525</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>500</v>
-      </c>
-      <c r="G38" s="53">
-        <v>4.3</v>
-      </c>
-      <c r="H38" s="53">
-        <v>1</v>
-      </c>
-      <c r="I38" s="47" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="54" t="s">
-        <v>537</v>
-      </c>
-      <c r="B39" s="55">
-        <v>15.1</v>
-      </c>
-      <c r="C39" s="55">
-        <v>1</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>526</v>
-      </c>
-      <c r="F39" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="G39" s="55">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="H39" s="55">
-        <v>3</v>
-      </c>
-      <c r="I39" s="51" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
-        <v>527</v>
-      </c>
-      <c r="B40" s="53">
-        <v>4.3</v>
-      </c>
-      <c r="C40" s="53">
-        <v>1</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>528</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>549</v>
-      </c>
-      <c r="G40" s="53">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="H40" s="53">
-        <v>1</v>
-      </c>
-      <c r="I40" s="47" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
-        <v>527</v>
-      </c>
-      <c r="B41" s="55">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C41" s="55">
-        <v>1</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>529</v>
-      </c>
-      <c r="F41" s="54" t="s">
-        <v>549</v>
-      </c>
-      <c r="G41" s="55">
-        <v>17.3</v>
-      </c>
-      <c r="H41" s="55">
-        <v>1</v>
-      </c>
-      <c r="I41" s="51" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="52" t="s">
-        <v>530</v>
-      </c>
-      <c r="B42" s="53">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="C42" s="53">
-        <v>2</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>532</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>550</v>
-      </c>
-      <c r="G42" s="53">
-        <v>16.3</v>
-      </c>
-      <c r="H42" s="53">
-        <v>1</v>
-      </c>
-      <c r="I42" s="47" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="54" t="s">
-        <v>530</v>
-      </c>
-      <c r="B43" s="55">
-        <v>26.8</v>
-      </c>
-      <c r="C43" s="55">
-        <v>2</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="F43" s="54" t="s">
-        <v>550</v>
-      </c>
-      <c r="G43" s="55">
-        <v>48.3</v>
-      </c>
-      <c r="H43" s="55">
-        <v>4</v>
-      </c>
-      <c r="I43" s="51" t="s">
-        <v>511</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="F2:I43">
-    <sortCondition ref="F2:F43"/>
-    <sortCondition ref="G2:G43"/>
-  </sortState>
-  <customSheetViews>
-    <customSheetView guid="{0207575D-3FDA-441D-8E09-487CC75706CC}">
-      <selection activeCell="I4" sqref="I4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-  </customSheetViews>
-  <pageMargins left="0.35" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="40" t="s">
-        <v>559</v>
-      </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="41" t="s">
-        <v>562</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="42" t="s">
-        <v>560</v>
-      </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="42" t="s">
-        <v>563</v>
-      </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="42" t="s">
-        <v>561</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="J8" s="39"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="N8" s="39"/>
-      <c r="O8" s="28"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="21" t="s">
-        <v>564</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" s="32">
-        <v>-0.3</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="G10" s="32">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="K10" s="32">
-        <v>14.9</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="O10" s="32">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="32">
-        <v>0</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="G11" s="32">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="K11" s="32">
-        <v>15</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="O11" s="32">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="G12" s="32">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="K12" s="32">
-        <v>15.3</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="O12" s="32">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" s="32">
-        <v>3.9</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="G13" s="32">
-        <v>10.3</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="K13" s="32">
-        <v>15.8</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="O13" s="32">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="C14" s="32">
-        <v>4.2</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="G14" s="32">
-        <v>10.5</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="K14" s="32">
-        <v>15.9</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="O14" s="32">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="C15" s="32">
-        <v>4.2</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="G15" s="32">
-        <v>10.5</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="K15" s="32">
-        <v>16.5</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="O15" s="32">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="C16" s="32">
-        <v>4.3</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="G16" s="32">
-        <v>11.4</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="K16" s="32">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="O16" s="32">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="C17" s="32">
-        <v>4.8</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="G17" s="32">
-        <v>11.6</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="K17" s="32">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="O17" s="32">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="C18" s="32">
-        <v>6.2</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="G18" s="32">
-        <v>11.9</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="K18" s="32">
-        <v>17.3</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="O18" s="32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="C19" s="32">
-        <v>6.2</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="G19" s="32">
-        <v>12.1</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="K19" s="32">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="O19" s="32">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="22" t="s">
-        <v>388</v>
-      </c>
-      <c r="C20" s="32">
-        <v>6.9</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="G20" s="32">
-        <v>12.2</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="K20" s="32">
-        <v>18</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="O20" s="32">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="22" t="s">
-        <v>405</v>
-      </c>
-      <c r="C21" s="32">
-        <v>7</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="G21" s="32">
-        <v>12.9</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="K21" s="32">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="O21" s="32">
-        <v>32.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="C22" s="32">
-        <v>7.7</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="G22" s="32">
-        <v>13.2</v>
-      </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="K22" s="32">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="O22" s="32">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="C23" s="32">
-        <v>8.4</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="G23" s="32">
-        <v>13.4</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="K23" s="32">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="O23" s="32">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="C24" s="32">
-        <v>8.6</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="G24" s="32">
-        <v>13.7</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="K24" s="32">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="O24" s="32">
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="C25" s="32">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="G25" s="32">
-        <v>14.2</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="K25" s="32">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="35" t="s">
-        <v>381</v>
-      </c>
-      <c r="O25" s="36">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="C26" s="32">
-        <v>8.9</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="G26" s="36">
-        <v>14.4</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35" t="s">
-        <v>401</v>
-      </c>
-      <c r="K26" s="36">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="C27" s="32">
-        <v>8.9</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="C28" s="32">
-        <v>8.9</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="C29" s="36">
-        <v>8.9</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41" t="s">
-        <v>566</v>
-      </c>
-      <c r="J30" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41" t="s">
-        <v>568</v>
-      </c>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{0207575D-3FDA-441D-8E09-487CC75706CC}" showPageBreaks="1" topLeftCell="A13">
-      <selection activeCell="F28" sqref="F28"/>
-      <pageMargins left="0.45" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="landscape" r:id="rId1"/>
-    </customSheetView>
-  </customSheetViews>
-  <pageMargins left="0.45" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
-</worksheet>
 </file>